--- a/2022学修ポートフォリオ.xlsx
+++ b/2022学修ポートフォリオ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyuma\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A921A11-9D99-4BC1-9754-93EF8DD7F6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4876E65F-1296-471E-A300-3F623B1A21ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>自主的な学習の姿勢</t>
     <rPh sb="0" eb="3">
@@ -1352,6 +1352,10 @@
       </rPr>
       <t>0</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くぁｗｓｄせｄｆｒｔｇｙじ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2943,8 +2947,8 @@
   </sheetPr>
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3021,7 +3025,9 @@
       <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>50</v>
       </c>
